--- a/Deep Learning.xlsx
+++ b/Deep Learning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -267,10 +267,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$100</c:f>
+              <c:f>Sheet1!$I$2:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>52.800000002374873</c:v>
                 </c:pt>
@@ -406,10 +406,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$100</c:f>
+              <c:f>Sheet1!$J$2:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>52.800000002374873</c:v>
                 </c:pt>
@@ -536,11 +536,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133144576"/>
-        <c:axId val="44892736"/>
+        <c:axId val="54086656"/>
+        <c:axId val="53133888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133144576"/>
+        <c:axId val="54086656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -588,7 +588,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44892736"/>
+        <c:crossAx val="53133888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -596,7 +596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44892736"/>
+        <c:axId val="53133888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,7 +627,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133144576"/>
+        <c:crossAx val="54086656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -975,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -3000,7 +3000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A25:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
